--- a/fromWill/4_2020_Dec18/README.xlsx
+++ b/fromWill/4_2020_Dec18/README.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jayoung/Desktop/mac_workStuff/domesticated_capsid/fromWill/4_2020_Dec18/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035FD1FE-B1ED-2746-A08F-161B420521BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1360F1-42F3-714E-9036-054FB1B80C56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{F3BEFC2A-5CF9-2044-9A78-9878F7A35204}"/>
   </bookViews>
@@ -510,15 +510,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF74A2B5-4E3A-AC44-ACE3-12AC6BF3D5DA}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="49" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="43.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="82" style="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -544,12 +544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -560,7 +555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="119" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -571,7 +566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="238" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -582,7 +577,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -615,7 +610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -626,7 +621,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="204" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -648,12 +643,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -664,7 +654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -675,7 +665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="187" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="102" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -686,7 +676,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="85" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -697,7 +687,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -730,7 +720,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="136" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="68" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>

--- a/fromWill/4_2020_Dec18/README.xlsx
+++ b/fromWill/4_2020_Dec18/README.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jayoung/Desktop/mac_workStuff/domesticated_capsid/fromWill/4_2020_Dec18/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1360F1-42F3-714E-9036-054FB1B80C56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA0697D2-21CA-4D42-9E63-449BD16DB19E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{F3BEFC2A-5CF9-2044-9A78-9878F7A35204}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$G$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>description</t>
   </si>
@@ -45,24 +45,9 @@
     <t>file</t>
   </si>
   <si>
-    <t xml:space="preserve"> num.seqs</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A schematic of the tree and phylogenetic neighbors of PNMA and Mart family genes </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Full-length human sequences with HMM hits for CA domain (including those excluded by downstream phylogenetic analysis)(8 included downstream - RTL1|RTL5|6 isoforms of PEG10)(16 excluded from downstream) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CA domain only of human sequences with HMM hits for CA domain (including those excluded by downstream phylogenetic analysis)(8 included downstream - RTL1|RTL5|6 isoforms of PEG10)(16 excluded from downstream)-Not used for alignments to allow for full-length sequence observations</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Trimmed MSA (all columns with sequence in less than 80% of the rows removed)(NOTE: this file was used for Ali2d secondary structure prediction)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Espript-prepared figure of alignment across the helices of the CA domain with Ty3 structures overlaid the alignment (NTD top - CTD bottom)</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Full length human sequences with HMM hits for CA domain (including those excluded by downstream phylogenetic analysis)(25 included in downstream analysis)(7 excluded from downstream analysis)</t>
   </si>
   <si>
@@ -75,66 +60,6 @@
     <t>2020.12.14.kingdom.vertebrates.canonical.retrotransposon.mart.pnma.subtree.png</t>
   </si>
   <si>
-    <t>mart.subtree  /  2020.12.10.CA.full.seqs.mart.neighborhood.extended.human.only.faa</t>
-  </si>
-  <si>
-    <t>mart.subtree  /  2020.12.10.CA.only.seqs.refseq.mart.extended.faa</t>
-  </si>
-  <si>
-    <t>mart.subtree  /  2020.12.11.CA.full.mart.neighborhood.extended.Ty3.faa</t>
-  </si>
-  <si>
-    <t>mart.subtree  /  2020.12.11.CA.full.mart.neighborhood.cdhit.t1.linsi.aln</t>
-  </si>
-  <si>
-    <t>mart.subtree  /  2020.12.11.CA.full.mart.neighborhood.cdhit.t1.linsi.trimal.gt0.8.aln</t>
-  </si>
-  <si>
-    <t>mart.subtree  /  2020.12.13.CA.full.mart.neighborhood.cdhit.t1.linsi.espript.pdf</t>
-  </si>
-  <si>
-    <t>mart.subtree  /  2020.12.13.CA.full.mart.neighborhood.cdhit.t1.linsi.trimal.gt0.8.ali2d.out</t>
-  </si>
-  <si>
-    <t>mart.subtree  /  2020.12.13.CA.full.mart.neighborhood.cdhit.t1.linsi.trimal.gt0.8.ali2d.out.01.png</t>
-  </si>
-  <si>
-    <t>mart.subtree  /  2020.12.13.CA.full.mart.neighborhood.cdhit.t1.linsi.trimal.gt0.8.ali2d.out.02.png</t>
-  </si>
-  <si>
-    <t>pnma.subtree  /  2020.12.14.CA.full.seqs.refseq.pnma.extended.faa</t>
-  </si>
-  <si>
-    <t>pnma.subtree  /  2020.12.14.CA.only.seqs.refseq.pnma.extended.faa</t>
-  </si>
-  <si>
-    <t>pnma.subtree  /  2020.12.15.CA.full.seqs.neighborhood.extended.dARCs.faa</t>
-  </si>
-  <si>
-    <t>pnma.subtree  /  2020.12.15.CA.full.seqs.neighborhood.extended.dARCs.cdhit.t1.linsi.aln</t>
-  </si>
-  <si>
-    <t>pnma.subtree  /  2020.12.15.CA.full.seqs.neighborhood.extended.dARCs.cdhit.t1.linsi.espript.pdf</t>
-  </si>
-  <si>
-    <t>pnma.subtree  /  2020.12.15.CA.full.seqs.neighborhood.extended.dARCs.cdhit.t1.linsi.trimal.gt0.8.aln</t>
-  </si>
-  <si>
-    <t>pnma.subtree  /  2020.12.15.CA.full.seqs.neighborhood.extended.dARCs.cdhit.t1.linsi.trimal.gt0.8.ali2d.out</t>
-  </si>
-  <si>
-    <t>pnma.subtree  /  2020.12.15.CA.full.seqs.neighborhood.extended.dARCs.cdhit.t1.linsi.trimal.gt0.8.ali2d.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Full length sequences from the Mart family subtree and excluded human sequences (extended) (upper in schematic, and HHpred-predicted closest capsid of Ty3 (n=2 Ty3 sequences - Uniprot and Repbase)(n=32 human sequences - some duplicates because of concatenation strategy used to combine subtree family sequences and human sequences - these human sequences are reduced to n=14 by cdhit)(n=85 vertebrate Gypsy retrotransposons)(NOTE: prefix for these sequences reduced to 2020.12.*.CA.full.mart.neighborhood.* in downstream workflow)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MAFFT-alignment of extended Mart neighborhood (L-INS-I strategy)(Note: CD-Hit removed 18 identical sequences, all human sequences prior to alignment)(NOTE: This file was used to build espript file)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ali2D output (I think this can be easily manipulated for a figure in R, but I haven't played with it yet)(NOTE: Repbase Ty3 sequence removed because Ali2D has a 100-sequence limit) </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Second half of Ali2d visual output. Note: Sequences 47-50 are not visible, but the patterns seen in other Gypsys hold). </t>
   </si>
   <si>
@@ -151,14 +76,124 @@
   </si>
   <si>
     <t xml:space="preserve"> Ali2d visual output - shows conserved helices across Gypsy neighbors and human sequences. Also shows that some human genes are missing conserved regions. (NOTE: the CCHC motif is not visible in the far right, it is trimmed - however it is visible in espript. I think it warrants more exploration, and a next step is to delete all sequences that lack it and re-align) </t>
+  </si>
+  <si>
+    <t>dir</t>
+  </si>
+  <si>
+    <t>mart_subtree</t>
+  </si>
+  <si>
+    <t>pnma.subtree</t>
+  </si>
+  <si>
+    <t>2020.12.14.CA.full.seqs.refseq.pnma.extended.faa</t>
+  </si>
+  <si>
+    <t>2020.12.14.CA.only.seqs.refseq.pnma.extended.faa</t>
+  </si>
+  <si>
+    <t>2020.12.15.CA.full.seqs.neighborhood.extended.dARCs.faa</t>
+  </si>
+  <si>
+    <t>2020.12.15.CA.full.seqs.neighborhood.extended.dARCs.cdhit.t1.linsi.aln</t>
+  </si>
+  <si>
+    <t>2020.12.15.CA.full.seqs.neighborhood.extended.dARCs.cdhit.t1.linsi.espript.pdf</t>
+  </si>
+  <si>
+    <t>2020.12.15.CA.full.seqs.neighborhood.extended.dARCs.cdhit.t1.linsi.trimal.gt0.8.aln</t>
+  </si>
+  <si>
+    <t>2020.12.15.CA.full.seqs.neighborhood.extended.dARCs.cdhit.t1.linsi.trimal.gt0.8.ali2d.out</t>
+  </si>
+  <si>
+    <t>2020.12.15.CA.full.seqs.neighborhood.extended.dARCs.cdhit.t1.linsi.trimal.gt0.8.ali2d.png</t>
+  </si>
+  <si>
+    <t>2020.12.10.CA.full.seqs.mart.neighborhood.extended.human.only.faa</t>
+  </si>
+  <si>
+    <t>2020.12.10.CA.only.seqs.refseq.mart.extended.faa</t>
+  </si>
+  <si>
+    <t>2020.12.11.CA.full.mart.neighborhood.extended.Ty3.faa</t>
+  </si>
+  <si>
+    <t>2020.12.11.CA.full.mart.neighborhood.cdhit.t1.linsi.aln</t>
+  </si>
+  <si>
+    <t>2020.12.11.CA.full.mart.neighborhood.cdhit.t1.linsi.trimal.gt0.8.aln</t>
+  </si>
+  <si>
+    <t>2020.12.13.CA.full.mart.neighborhood.cdhit.t1.linsi.espript.pdf</t>
+  </si>
+  <si>
+    <t>2020.12.13.CA.full.mart.neighborhood.cdhit.t1.linsi.trimal.gt0.8.ali2d.out</t>
+  </si>
+  <si>
+    <t>2020.12.13.CA.full.mart.neighborhood.cdhit.t1.linsi.trimal.gt0.8.ali2d.out.01.png</t>
+  </si>
+  <si>
+    <t>2020.12.13.CA.full.mart.neighborhood.cdhit.t1.linsi.trimal.gt0.8.ali2d.out.02.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A schematic of the tree and phylogenetic neighbors of PNMA and Mart family genes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full-length human sequences with HMM hits for CA domain 
+(including those excluded by downstream phylogenetic analysis)
+(8 included downstream - RTL1|RTL5|6 isoforms of PEG10)
+(16 excluded from downstream) </t>
+  </si>
+  <si>
+    <t>CA domain only of human sequences with HMM hits for CA domain
+(including those excluded by downstream phylogenetic analysis)
+(8 included downstream - RTL1|RTL5|6 isoforms of PEG10)
+(16 excluded from downstream)
+Not used for alignments to allow for full-length sequence observations</t>
+  </si>
+  <si>
+    <t>Full length sequences from the Mart family subtree and excluded human sequences (extended) (upper in schematic, and HHpred-predicted closest capsid of Ty3 (n=2 Ty3 sequences - Uniprot and Repbase)
+(n=32 human sequences - some duplicates because of concatenation strategy used to combine subtree family sequences and human sequences - these human sequences are reduced to n=14 by cdhit)
+(n=85 vertebrate Gypsy retrotransposons)
+(NOTE: prefix for these sequences reduced to 2020.12.*.CA.full.mart.neighborhood.* in downstream workflow)</t>
+  </si>
+  <si>
+    <t>MAFFT-alignment of extended Mart neighborhood (L-INS-I strategy)
+(Note: CD-Hit removed 18 identical sequences, all human sequences prior to alignment)
+(NOTE: This file was used to build espript file)</t>
+  </si>
+  <si>
+    <t>Trimmed MSA (all columns with sequence in less than 80% of the rows removed)
+(NOTE: this file was used for Ali2d secondary structure prediction)</t>
+  </si>
+  <si>
+    <t>Espript-prepared figure of alignment across the helices of the CA domain with Ty3 structures overlaid the alignment (NTD top - CTD bottom)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ali2D output 
+(I think this can be easily manipulated for a figure in R, but I haven't played with it yet)
+(NOTE: Repbase Ty3 sequence removed because Ali2D has a 100-sequence limit) </t>
+  </si>
+  <si>
+    <t>num seqs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -186,13 +221,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -508,227 +546,283 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF74A2B5-4E3A-AC44-ACE3-12AC6BF3D5DA}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="82" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="82" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="115" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="2">
+        <v>119</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2">
+        <v>101</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2">
+        <v>101</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2">
+        <v>101</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2">
+        <v>100</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2">
+        <v>46</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="2">
+        <v>48</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="2">
+        <v>79</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2">
+        <v>42</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2">
+        <v>42</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="2">
+        <v>42</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2">
+        <v>42</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2">
+        <v>42</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" s="2">
-        <v>24</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2">
-        <v>119</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2">
-        <v>101</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2">
-        <v>101</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2">
-        <v>101</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2">
-        <v>100</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="2">
-        <v>46</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2">
-        <v>48</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2">
-        <v>32</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="2">
-        <v>32</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="2">
-        <v>79</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="2">
-        <v>42</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="2">
-        <v>42</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="2">
-        <v>42</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="2">
-        <v>42</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="68" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="2">
-        <v>42</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
